--- a/data/TopOnePercent/Capital Normal University.xlsx
+++ b/data/TopOnePercent/Capital Normal University.xlsx
@@ -184,13 +184,13 @@
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>1315.0</v>
+        <v>1268.0</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>15055.0</v>
+        <v>15139.0</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>11.45</v>
+        <v>11.94</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>6.0</v>
@@ -206,13 +206,13 @@
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>377.0</v>
+        <v>370.0</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>6985.0</v>
+        <v>7252.0</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>18.53</v>
+        <v>19.6</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>8.0</v>
@@ -228,16 +228,16 @@
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>542.0</v>
+        <v>523.0</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>6298.0</v>
+        <v>5954.0</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>11.62</v>
+        <v>11.38</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="10">
@@ -250,22 +250,22 @@
         </is>
       </c>
       <c r="C10" s="3" t="n">
-        <v>6257.0</v>
+        <v>6095.0</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>60893.0</v>
+        <v>59452.0</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>9.73</v>
+        <v>9.75</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Copyright © 2019 Clarivate Analytics</t>
+          <t>Copyright © 2020 Clarivate Analytics</t>
         </is>
       </c>
     </row>
